--- a/static/templates/Product_Requirements_Traceability_Matrix.xlsx
+++ b/static/templates/Product_Requirements_Traceability_Matrix.xlsx
@@ -782,7 +782,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Compliance Officers</t>
+          <t>Quality Assurance Managers</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
